--- a/biology/Botanique/Aloe_striatula/Aloe_striatula.xlsx
+++ b/biology/Botanique/Aloe_striatula/Aloe_striatula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Aloe striatula est une espèce du genre Aloès originaire d'Afrique du Sud et du Lesotho.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante robuste, formant de larges buissons allant jusqu'à 2 mètres de hauteur et plusieurs mètres de largeur. Les tiges ont un diamètre moyen de 20 mm. La plante pousse en touffes grâce à sa forte capacité à drageonner. Dans son pays d'origine, la période de floraison se situe entre novembre et janvier.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est présente de l'ouest de Graaff-Reinet dans le Karoo, à Queenstown et Lady Grey à l'est de la Province du Cap de l'Est, ainsi que dans les montagnes du Lesotho.
 </t>
@@ -573,9 +589,11 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deux variétés sont reconnues : Aloe striatula var. striatula Haworth et Aloe striatula var. caesia Reynolds [1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux variétés sont reconnues : Aloe striatula var. striatula Haworth et Aloe striatula var. caesia Reynolds 
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce supporte de très basses températures et pousse là où peu d'autres espèces d'Aloe survivraient.
 </t>
